--- a/Excel/9班_出席_画面項目定義.xlsx
+++ b/Excel/9班_出席_画面項目定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\NIAMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B268E3EB-2BE4-4B94-BB5C-4E9B9084D5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54688405-C25D-4973-96E9-6FA81851C187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="3" activeTab="4" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="3" activeTab="5" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="65">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -182,20 +182,6 @@
   </si>
   <si>
     <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No2,3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>授業選択画面へ遷移</t>
-    <rPh sb="0" eb="6">
-      <t>ジュギョウセンタクガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -494,16 +480,6 @@
     <t>読み取り終了</t>
     <rPh sb="0" eb="1">
       <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出席データ表示画面</t>
-    <rPh sb="0" eb="2">
-      <t>シュッセキ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ヒョウジガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -553,6 +529,70 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン認証後、
+授業選択画面へ遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>ジュギョウセンタクガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに訂正内容反映
+出席データ表示画面へ遷移</t>
+    <rPh sb="14" eb="16">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み取り画面</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席データ表示画面へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヒョウジガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -995,7 +1035,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1085,7 +1125,9 @@
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1102,14 +1144,16 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1119,15 +1163,13 @@
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
+      <c r="G10" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1200,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57FD1C7-5608-4D47-A75E-687D5EA9B466}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1235,7 +1277,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
@@ -1268,14 +1310,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1285,14 +1329,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1302,14 +1348,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1319,18 +1367,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1338,18 +1386,18 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1357,14 +1405,14 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1417,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C509679-926D-4284-BF67-C0E2EA45EA46}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
@@ -1454,7 +1502,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
@@ -1487,14 +1535,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1504,14 +1552,14 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1521,14 +1569,14 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1538,18 +1586,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1557,18 +1605,18 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1576,18 +1624,18 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1595,18 +1643,18 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1614,18 +1662,18 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1633,18 +1681,18 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -1652,16 +1700,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1734,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC659B-E439-47B0-B17B-B7CBB37BA245}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1768,7 +1816,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
@@ -1801,14 +1849,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1818,14 +1866,14 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1835,14 +1883,14 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1852,18 +1900,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1871,18 +1919,18 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1890,18 +1938,18 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1909,18 +1957,18 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -1928,16 +1976,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2032,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7890127C-7078-4163-950C-67BBB3F532C8}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2068,7 +2116,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
@@ -2101,14 +2149,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2118,14 +2166,14 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2135,14 +2183,14 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2152,18 +2200,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2171,37 +2219,37 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2209,16 +2257,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2226,7 +2274,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -2235,7 +2283,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2330,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F05EE7B-5011-4C30-A380-E544534F4E32}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2365,7 +2413,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
@@ -2398,14 +2446,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2415,14 +2463,14 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2432,14 +2480,14 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2449,18 +2497,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2468,18 +2516,18 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -2487,18 +2535,18 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -2506,18 +2554,18 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -2525,16 +2573,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.55000000000000004">
@@ -2542,16 +2590,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">

--- a/Excel/9班_出席_画面項目定義.xlsx
+++ b/Excel/9班_出席_画面項目定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54688405-C25D-4973-96E9-6FA81851C187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D2B0EA-530F-4096-87A8-EE233AC85053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="3" activeTab="5" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="2" activeTab="2" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="72">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -331,16 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学籍番号検索</t>
-    <rPh sb="0" eb="4">
-      <t>ガクセキバンゴウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>免除処理</t>
     <rPh sb="0" eb="4">
       <t>メンジョショリ</t>
@@ -381,26 +371,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示データを入力された学籍番号と
-一致するものだけにする</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガクセキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イッチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -430,26 +400,6 @@
     <t>確定ボタン</t>
     <rPh sb="0" eb="2">
       <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出席データ表示画面へ遷移
-データベースに訂正内容反映</t>
-    <rPh sb="0" eb="2">
-      <t>シュッセキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>テイセイナイヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ハンエイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -540,23 +490,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン認証後、
-授業選択画面へ遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="9" eb="15">
-      <t>ジュギョウセンタクガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベースに訂正内容反映
 出席データ表示画面へ遷移</t>
     <rPh sb="14" eb="16">
@@ -584,15 +517,159 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出席データ表示画面へ遷移</t>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席データ表示画面へ遷移
+データベースに訂正内容反映</t>
     <rPh sb="0" eb="2">
       <t>シュッセキ</t>
     </rPh>
-    <rPh sb="5" eb="9">
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン認証が通った後、
+授業選択画面へ遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="19">
+      <t>ジュギョウセンタクガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学籍番号検索確定ボタン</t>
+    <rPh sb="0" eb="4">
+      <t>ガクセキバンゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示データを入力された学籍番号と
+一致するものだけにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学籍番号検索確定ボタンに渡す用の入力値を保持する</t>
+    <rPh sb="0" eb="4">
+      <t>ガクセキバンゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学籍番号検索覧</t>
+    <rPh sb="0" eb="4">
+      <t>ガクセキバンゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No6の確定ボタンで、データベースの反映させる先は「出席テーブル」</t>
+    <rPh sb="4" eb="6">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースへ反映
+出席データ表示画面へ遷移</t>
+    <rPh sb="7" eb="9">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
       <t>ヒョウジガメン</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="20" eb="22">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No6の参照データベースは「出席テーブル」</t>
+    <rPh sb="4" eb="6">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No6の参照テーブルは「出席テーブル」</t>
+    <rPh sb="4" eb="6">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュッセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -618,7 +695,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +717,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,6 +780,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DF002C-AEA6-48B4-9446-F8F6721C34F2}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1126,7 +1212,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
@@ -1145,7 +1231,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>19</v>
@@ -1169,7 +1255,7 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1227,11 +1313,23 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1240,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57FD1C7-5608-4D47-A75E-687D5EA9B466}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1316,7 +1414,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>33</v>
@@ -1335,7 +1433,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>34</v>
@@ -1354,7 +1452,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
@@ -1450,11 +1548,23 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C509679-926D-4284-BF67-C0E2EA45EA46}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1540,7 +1650,9 @@
       <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1557,7 +1669,9 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
@@ -1574,7 +1688,9 @@
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
@@ -1635,7 +1751,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1650,11 +1766,11 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1673,55 +1789,61 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>11</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
@@ -1767,11 +1889,23 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1780,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC659B-E439-47B0-B17B-B7CBB37BA245}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1816,7 +1950,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
@@ -1938,66 +2072,72 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
@@ -2065,11 +2205,25 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2078,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7890127C-7078-4163-950C-67BBB3F532C8}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2116,7 +2270,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
@@ -2154,7 +2308,9 @@
       <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2171,7 +2327,9 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
@@ -2188,7 +2346,9 @@
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
@@ -2233,23 +2393,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2257,16 +2417,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2274,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -2283,7 +2443,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2363,11 +2523,25 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2376,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F05EE7B-5011-4C30-A380-E544534F4E32}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2413,7 +2587,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
@@ -2535,83 +2709,89 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>10</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
@@ -2668,11 +2848,25 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/9班_出席_画面項目定義.xlsx
+++ b/Excel/9班_出席_画面項目定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D2B0EA-530F-4096-87A8-EE233AC85053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377EB845-863E-42B6-905F-40ADDA2BF081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="2" activeTab="2" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -621,22 +621,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No6の確定ボタンで、データベースの反映させる先は「出席テーブル」</t>
-    <rPh sb="4" eb="6">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュッセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベースへ反映
 出席データ表示画面へ遷移</t>
     <rPh sb="7" eb="9">
@@ -670,6 +654,29 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>シュッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No6の確定ボタンで、データベースの反映させる先は「出席テーブル」
+No8の参照テーブルは免除資格</t>
+    <rPh sb="4" eb="6">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>メンジョシカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -756,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,14 +782,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,26 +1149,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1314,15 +1324,15 @@
       <c r="G15" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1340,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57FD1C7-5608-4D47-A75E-687D5EA9B466}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1358,26 +1368,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1549,15 +1559,15 @@
       <c r="G15" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1575,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C509679-926D-4284-BF67-C0E2EA45EA46}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1595,26 +1605,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1890,15 +1900,15 @@
       <c r="G21" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1926,6 +1936,7 @@
     <col min="3" max="3" width="25.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.08203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.9140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1933,26 +1944,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2206,17 +2217,17 @@
       <c r="G21" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2234,7 +2245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7890127C-7078-4163-950C-67BBB3F532C8}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2253,26 +2264,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2409,7 +2420,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2524,17 +2535,17 @@
       <c r="G21" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2552,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F05EE7B-5011-4C30-A380-E544534F4E32}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2570,26 +2581,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2848,18 +2859,18 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Excel/9班_出席_画面項目定義.xlsx
+++ b/Excel/9班_出席_画面項目定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377EB845-863E-42B6-905F-40ADDA2BF081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4C2B2-A123-40B2-99BA-FC0474F6BC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="69">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -634,49 +634,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No6の参照データベースは「出席テーブル」</t>
-    <rPh sb="4" eb="6">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュッセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No6の参照テーブルは「出席テーブル」</t>
-    <rPh sb="4" eb="6">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュッセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No6の確定ボタンで、データベースの反映させる先は「出席テーブル」
-No8の参照テーブルは免除資格</t>
-    <rPh sb="4" eb="6">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュッセキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="45" eb="49">
-      <t>メンジョシカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -729,12 +686,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -757,13 +714,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,17 +765,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DF002C-AEA6-48B4-9446-F8F6721C34F2}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1145,33 +1143,33 @@
     <col min="7" max="7" width="27.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1193,8 +1191,11 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1210,8 +1211,9 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1229,8 +1231,9 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1248,8 +1251,9 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1267,8 +1271,9 @@
       <c r="G10" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1278,8 +1283,9 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1289,8 +1295,9 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1300,8 +1307,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1311,8 +1319,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -1322,24 +1331,22 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1348,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57FD1C7-5608-4D47-A75E-687D5EA9B466}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1364,33 +1371,33 @@
     <col min="7" max="7" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1412,8 +1419,11 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1431,8 +1441,9 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1450,8 +1461,9 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1469,8 +1481,9 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1488,8 +1501,9 @@
       <c r="G10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1507,8 +1521,9 @@
       <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1524,8 +1539,9 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1535,8 +1551,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1546,8 +1563,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -1557,24 +1575,22 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1583,16 +1599,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C509679-926D-4284-BF67-C0E2EA45EA46}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H21" sqref="H16:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" customWidth="1"/>
+    <col min="2" max="2" width="20.4140625" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
@@ -1601,33 +1617,33 @@
     <col min="8" max="8" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1649,8 +1665,11 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1668,8 +1687,9 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1687,8 +1707,9 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1706,8 +1727,9 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1725,8 +1747,9 @@
       <c r="G10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1744,8 +1767,9 @@
       <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1763,8 +1787,9 @@
       <c r="G12" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1782,8 +1807,9 @@
       <c r="G13" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1801,8 +1827,9 @@
       <c r="G14" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -1818,8 +1845,9 @@
       <c r="G15" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -1835,8 +1863,9 @@
       <c r="G16" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -1854,8 +1883,9 @@
       <c r="G17" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -1865,8 +1895,9 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -1876,8 +1907,9 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -1887,8 +1919,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -1898,24 +1931,22 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1924,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC659B-E439-47B0-B17B-B7CBB37BA245}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:G24"/>
+      <selection activeCell="H21" sqref="H16:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1940,33 +1971,33 @@
     <col min="7" max="7" width="17.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1988,8 +2019,11 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2005,8 +2039,9 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2022,8 +2057,9 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2039,8 +2075,9 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2058,8 +2095,9 @@
       <c r="G10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2077,8 +2115,9 @@
       <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2096,8 +2135,9 @@
       <c r="G12" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2113,8 +2153,9 @@
       <c r="G13" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -2130,8 +2171,9 @@
       <c r="G14" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -2149,8 +2191,9 @@
       <c r="G15" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -2160,8 +2203,9 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -2171,8 +2215,9 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -2182,8 +2227,9 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -2193,8 +2239,9 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -2204,8 +2251,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -2215,26 +2263,22 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2243,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7890127C-7078-4163-950C-67BBB3F532C8}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2260,33 +2304,33 @@
     <col min="7" max="7" width="17.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2308,8 +2352,11 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2327,8 +2374,9 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2346,8 +2394,9 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2365,8 +2414,9 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2384,8 +2434,9 @@
       <c r="G10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2403,8 +2454,9 @@
       <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2422,8 +2474,9 @@
       <c r="G12" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2439,8 +2492,9 @@
       <c r="G13" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -2456,8 +2510,9 @@
       <c r="G14" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -2467,8 +2522,9 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -2478,8 +2534,9 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -2489,8 +2546,9 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -2500,8 +2558,9 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -2511,8 +2570,9 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -2522,8 +2582,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -2533,26 +2594,22 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2561,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F05EE7B-5011-4C30-A380-E544534F4E32}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:G24"/>
+    <sheetView topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2577,33 +2634,33 @@
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2625,8 +2682,11 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2642,8 +2702,9 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2659,8 +2720,9 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2676,8 +2738,9 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2695,8 +2758,9 @@
       <c r="G10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2714,8 +2778,9 @@
       <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2733,8 +2798,9 @@
       <c r="G12" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2750,8 +2816,9 @@
       <c r="G13" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -2767,8 +2834,9 @@
       <c r="G14" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -2784,8 +2852,9 @@
       <c r="G15" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -2800,11 +2869,12 @@
         <v>42</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -2813,9 +2883,10 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="13"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -2824,9 +2895,10 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="13"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -2835,9 +2907,10 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="13"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -2846,9 +2919,10 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="13"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -2857,27 +2931,23 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/9班_出席_画面項目定義.xlsx
+++ b/Excel/9班_出席_画面項目定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4C2B2-A123-40B2-99BA-FC0474F6BC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B52D26-9CC7-49E8-A07F-1E064D6D024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="5" activeTab="5" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="81">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -578,11 +578,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示データを入力された学籍番号と
-一致するものだけにする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学籍番号検索確定ボタンに渡す用の入力値を保持する</t>
     <rPh sb="0" eb="4">
       <t>ガクセキバンゴウ</t>
@@ -635,6 +630,182 @@
     <rPh sb="20" eb="22">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザテーブルと認証</t>
+    <rPh sb="8" eb="10">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト右上の
+オレンジアイコン</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No11に入力された学籍番号と
+一致するものだけにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席データ表示</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された授業の
+出席データ全てを表示</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席テーブルから、
+表示する出席データを読み込み、
+表示する</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No15に入力された学籍番号と
+一致するものだけにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学籍番号検索確定ボタンに渡す用の入力値を受け取る</t>
+    <rPh sb="0" eb="4">
+      <t>ガクセキバンゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新先のテーブルは
+「出席テーブル」</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンサキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込みはNFCカードリーダー
+で行う
+更新先テーブルは
+「出席テーブル」</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>コウシンサキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席テーブルから
+最新の登録データを取得する</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>免除資格テーブル
+から情報を取得</t>
+    <rPh sb="0" eb="4">
+      <t>メンジョシカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No10に入力された学籍番号と
+一致するものだけにする</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -746,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,22 +936,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -791,6 +950,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DF002C-AEA6-48B4-9446-F8F6721C34F2}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1139,34 +1304,35 @@
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="28.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="27.58203125" customWidth="1"/>
+    <col min="8" max="8" width="18.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1271,7 +1437,9 @@
       <c r="G10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
@@ -1333,14 +1501,8 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1358,7 +1520,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1369,32 +1531,33 @@
     <col min="5" max="5" width="16.4140625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="19.08203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1483,7 +1646,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1501,7 +1664,9 @@
       <c r="G10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
@@ -1578,13 +1743,13 @@
       <c r="H15" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1601,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C509679-926D-4284-BF67-C0E2EA45EA46}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H21" sqref="H16:H21"/>
+    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1621,26 +1786,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1861,7 +2026,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -1870,7 +2035,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>18</v>
@@ -1881,20 +2046,28 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>12</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1934,13 +2107,13 @@
       <c r="H21" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1957,44 +2130,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC659B-E439-47B0-B17B-B7CBB37BA245}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H16:H21"/>
+    <sheetView topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.08203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.9140625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2117,7 +2291,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2135,7 +2309,9 @@
       <c r="G12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
@@ -2169,7 +2345,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -2178,7 +2354,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>18</v>
@@ -2189,7 +2365,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -2266,13 +2442,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2289,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7890127C-7078-4163-950C-67BBB3F532C8}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H21"/>
+    <sheetView topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2302,32 +2472,33 @@
     <col min="5" max="5" width="16.4140625" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="17.08203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2456,7 +2627,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2472,9 +2643,11 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
@@ -2510,7 +2683,9 @@
       <c r="G14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
@@ -2597,13 +2772,13 @@
       <c r="H21" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2620,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F05EE7B-5011-4C30-A380-E544534F4E32}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2638,26 +2813,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2834,7 +3009,9 @@
       <c r="G14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
@@ -2850,16 +3027,16 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
@@ -2869,8 +3046,8 @@
         <v>42</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="12" t="s">
-        <v>66</v>
+      <c r="G16" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -2883,7 +3060,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2895,7 +3072,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2907,7 +3084,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2919,7 +3096,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="13"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2931,17 +3108,17 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="9"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Excel/9班_出席_画面項目定義.xlsx
+++ b/Excel/9班_出席_画面項目定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\NIAMS\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B52D26-9CC7-49E8-A07F-1E064D6D024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6362BE-2AB2-418E-BB5A-6382992FE288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="5" activeTab="5" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="5" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -524,20 +524,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出席データ表示画面へ遷移
-データベースに訂正内容反映</t>
-    <rPh sb="0" eb="2">
-      <t>シュッセキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン認証が通った後、
 授業選択画面へ遷移</t>
     <rPh sb="4" eb="6">
@@ -806,6 +792,23 @@
   <si>
     <t>No10に入力された学籍番号と
 一致するものだけにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">データベースに訂正内容反映後、出席データ表示画面へ遷移
+</t>
+    <rPh sb="13" eb="14">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1293,23 +1296,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DF002C-AEA6-48B4-9446-F8F6721C34F2}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.58203125" customWidth="1"/>
-    <col min="2" max="2" width="22.4140625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
-    <col min="7" max="7" width="27.58203125" customWidth="1"/>
-    <col min="8" max="8" width="18.4140625" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" customWidth="1"/>
+    <col min="5" max="5" width="22.69921875" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" customWidth="1"/>
+    <col min="7" max="7" width="27.59765625" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1322,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1328,14 +1331,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1379,7 +1382,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1399,7 +1402,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1419,7 +1422,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1435,13 +1438,13 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1453,7 +1456,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1465,7 +1468,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1477,7 +1480,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1489,7 +1492,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -1501,7 +1504,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
     </row>
   </sheetData>
@@ -1519,22 +1522,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57FD1C7-5608-4D47-A75E-687D5EA9B466}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="13.4140625" customWidth="1"/>
-    <col min="5" max="5" width="16.4140625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.08203125" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="7" max="7" width="19.09765625" customWidth="1"/>
+    <col min="8" max="8" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1547,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1553,14 +1556,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1606,7 +1609,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1626,7 +1629,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1646,7 +1649,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1665,10 +1668,10 @@
         <v>31</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1688,7 +1691,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1706,7 +1709,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1718,7 +1721,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1730,7 +1733,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -1742,7 +1745,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1766,23 +1769,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C509679-926D-4284-BF67-C0E2EA45EA46}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.4140625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.296875" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="19.69921875" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +1795,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1801,14 +1804,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>33</v>
@@ -1854,7 +1857,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>34</v>
@@ -1874,7 +1877,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
@@ -1894,7 +1897,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1914,7 +1917,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1934,7 +1937,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1954,7 +1957,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1974,7 +1977,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1994,7 +1997,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -2012,12 +2015,12 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>21</v>
@@ -2026,16 +2029,16 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>18</v>
@@ -2046,31 +2049,31 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -2082,7 +2085,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -2094,7 +2097,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -2106,7 +2109,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2130,22 +2133,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC659B-E439-47B0-B17B-B7CBB37BA245}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" customWidth="1"/>
+    <col min="3" max="3" width="25.796875" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.9140625" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" customWidth="1"/>
+    <col min="7" max="7" width="17.8984375" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +2158,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2164,14 +2167,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2215,7 +2218,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2233,7 +2236,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2251,7 +2254,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2271,7 +2274,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2291,7 +2294,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2307,13 +2310,13 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2331,12 +2334,12 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>21</v>
@@ -2345,16 +2348,16 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>18</v>
@@ -2365,11 +2368,11 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -2381,7 +2384,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -2393,7 +2396,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -2405,7 +2408,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -2417,7 +2420,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -2429,7 +2432,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -2441,7 +2444,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="6"/>
     </row>
   </sheetData>
@@ -2459,23 +2462,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7890127C-7078-4163-950C-67BBB3F532C8}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="21.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.08203125" customWidth="1"/>
-    <col min="5" max="5" width="16.4140625" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" customWidth="1"/>
+    <col min="7" max="7" width="17.09765625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2485,7 +2488,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2494,14 +2497,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>33</v>
@@ -2547,7 +2550,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>34</v>
@@ -2567,7 +2570,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
@@ -2587,7 +2590,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2607,7 +2610,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2627,7 +2630,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2643,13 +2646,13 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2667,7 +2670,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -2684,10 +2687,10 @@
         <v>54</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -2699,7 +2702,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -2711,7 +2714,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -2723,7 +2726,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -2735,7 +2738,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -2747,7 +2750,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -2759,7 +2762,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -2771,7 +2774,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2796,20 +2799,20 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.08203125" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.9140625" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" customWidth="1"/>
+    <col min="7" max="7" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2819,7 +2822,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2828,14 +2831,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2861,7 +2864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2879,7 +2882,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2897,7 +2900,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2915,7 +2918,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2935,7 +2938,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2955,7 +2958,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2975,7 +2978,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2993,7 +2996,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -3010,15 +3013,15 @@
         <v>56</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>21</v>
@@ -3027,16 +3030,16 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
@@ -3047,11 +3050,11 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -3063,7 +3066,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -3075,7 +3078,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -3087,7 +3090,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -3099,7 +3102,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -3111,7 +3114,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>

--- a/Excel/9班_出席_画面項目定義.xlsx
+++ b/Excel/9班_出席_画面項目定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\NIAMS\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terud\Documents\GitHub\NIAMS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6362BE-2AB2-418E-BB5A-6382992FE288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F3777A-31E9-48E6-9654-D15E809ED8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="5" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12645" activeTab="5" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -1297,22 +1297,22 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" customWidth="1"/>
-    <col min="5" max="5" width="22.69921875" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" customWidth="1"/>
-    <col min="7" max="7" width="27.59765625" customWidth="1"/>
-    <col min="8" max="8" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1331,14 +1331,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
     </row>
   </sheetData>
@@ -1523,21 +1523,22 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.69921875" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" customWidth="1"/>
-    <col min="7" max="7" width="19.09765625" customWidth="1"/>
-    <col min="8" max="8" width="14.296875" customWidth="1"/>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1548,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1556,14 +1557,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1609,7 +1610,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1629,7 +1630,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1649,7 +1650,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1691,7 +1692,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1709,7 +1710,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1721,7 +1722,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1733,7 +1734,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -1745,7 +1746,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1770,22 +1771,22 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.296875" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.296875" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="19.69921875" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1796,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1804,14 +1805,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1857,7 +1858,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1877,7 +1878,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1897,7 +1898,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1917,7 +1918,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1937,7 +1938,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1957,7 +1958,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1977,7 +1978,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1997,7 +1998,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -2015,7 +2016,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -2033,7 +2034,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -2053,7 +2054,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -2073,7 +2074,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -2085,7 +2086,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -2097,7 +2098,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -2109,7 +2110,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2134,21 +2135,22 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A6" sqref="A6:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="25.796875" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="13.296875" customWidth="1"/>
-    <col min="7" max="7" width="17.8984375" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +2160,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2167,14 +2169,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2218,7 +2220,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2236,7 +2238,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2254,7 +2256,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2274,7 +2276,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2294,7 +2296,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2334,7 +2336,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -2352,7 +2354,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -2372,7 +2374,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -2384,7 +2386,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -2396,7 +2398,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -2408,7 +2410,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -2420,7 +2422,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -2432,7 +2434,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -2444,7 +2446,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
     </row>
   </sheetData>
@@ -2463,22 +2465,21 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A6" sqref="A6:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="21.09765625" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="17.09765625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2488,7 +2489,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2497,14 +2498,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2550,7 +2551,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2570,7 +2571,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2590,7 +2591,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2610,7 +2611,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2630,7 +2631,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2670,7 +2671,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -2702,7 +2703,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -2714,7 +2715,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -2726,7 +2727,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -2738,7 +2739,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -2750,7 +2751,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -2762,7 +2763,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -2774,7 +2775,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2798,21 +2799,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F05EE7B-5011-4C30-A380-E544534F4E32}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="46" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.09765625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" customWidth="1"/>
-    <col min="7" max="7" width="16.796875" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2822,7 +2825,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2831,14 +2834,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2882,7 +2885,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2900,7 +2903,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2918,7 +2921,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2938,7 +2941,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2958,7 +2961,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2978,7 +2981,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2996,7 +2999,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -3034,7 +3037,7 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -3054,7 +3057,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -3066,7 +3069,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -3078,7 +3081,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -3090,7 +3093,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -3102,7 +3105,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -3114,7 +3117,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
